--- a/src/main/resources/order/order-202111.xlsx
+++ b/src/main/resources/order/order-202111.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhyang/IdeaProjects/doufu/doufu-management/src/main/resources/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19820" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="19820" windowWidth="33600" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-11-15" sheetId="1" r:id="rId1"/>
-    <sheet name="2021-11-16" sheetId="2" r:id="rId2"/>
-    <sheet name="2021-11-13" sheetId="3" r:id="rId3"/>
+    <sheet name="2021-11-15" r:id="rId1" sheetId="1"/>
+    <sheet name="2021-11-16" r:id="rId2" sheetId="2"/>
+    <sheet name="2021-11-13" r:id="rId3" sheetId="3"/>
+    <sheet name="2021-11-22" r:id="rId7" sheetId="4"/>
+    <sheet name="2021-11-23" r:id="rId8" sheetId="5"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="65">
   <si>
     <t>张三1</t>
   </si>
@@ -194,12 +196,43 @@
   </si>
   <si>
     <t>81.0</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>豆腐</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>凉皮</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>面筋</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>豆芽</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>5.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,16 +266,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -256,10 +289,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -294,7 +327,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -329,7 +362,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -423,21 +456,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -454,7 +487,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -506,14 +539,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1296,12 +1329,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2084,12 +2117,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2872,6 +2905,130 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/order/order-202111.xlsx
+++ b/src/main/resources/order/order-202111.xlsx
@@ -17,6 +17,7 @@
     <sheet name="2021-11-13" r:id="rId3" sheetId="3"/>
     <sheet name="2021-11-22" r:id="rId7" sheetId="4"/>
     <sheet name="2021-11-23" r:id="rId8" sheetId="5"/>
+    <sheet name="2021-11-25" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="66">
   <si>
     <t>张三1</t>
   </si>
@@ -226,6 +227,9 @@
   </si>
   <si>
     <t>5.4</t>
+  </si>
+  <si>
+    <t>doufu4</t>
   </si>
 </sst>
 </file>
@@ -3031,4 +3035,86 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>